--- a/yuiop29re/yuiop29re-bom.xlsx
+++ b/yuiop29re/yuiop29re-bom.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\koron\kicad\yuiop\yuiop29re\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A551338-A47D-4C3D-B0FC-F6412D22FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1ED204-E208-4535-A029-353BA84E19BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4D4B99E8-3E11-4095-AFB7-C85B7F49E6A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{4D4B99E8-3E11-4095-AFB7-C85B7F49E6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="yuiop29re" sheetId="1" r:id="rId1"/>
+    <sheet name="チェックシート" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
   <si>
     <t>Reference</t>
   </si>
@@ -491,6 +492,10 @@
     <rPh sb="1" eb="3">
       <t>テイトウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -858,7 +863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1025,6 +1030,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1157,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,6 +1198,9 @@
     <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1191,7 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1552,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC38DEF-C02A-49BE-B36F-7F8E3599EC7D}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -2668,7 +2687,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="2">
@@ -2743,17 +2762,17 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="3">
         <f>SUM(J2:J29)</f>
         <v>6335.300000000002</v>
@@ -2768,17 +2787,17 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="3">
         <f>J30*1.3</f>
         <v>8235.8900000000031</v>
@@ -2793,17 +2812,17 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="3">
         <f>J30*2</f>
         <v>12670.600000000004</v>
@@ -2851,4 +2870,412 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6414CC4-CEFC-41DB-A6F0-7FC59CFECF39}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>